--- a/SortierenZeiten.xlsx
+++ b/SortierenZeiten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\2_Unterricht\21_Module\411\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSH\Downloads\SortierAlgorithmen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A76B5B0-B050-44B5-B6A6-E057EB1FC4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6489A2A0-1BFF-446D-BE06-1E5F4EABABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{4F1C8940-1C8E-45F0-8DBD-465883E59B74}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{4F1C8940-1C8E-45F0-8DBD-465883E59B74}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>Quicksort</t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t>Sortieren Vermögen</t>
+  </si>
+  <si>
+    <t>0.001s</t>
+  </si>
+  <si>
+    <t>5.199s</t>
+  </si>
+  <si>
+    <t>5.006s</t>
+  </si>
+  <si>
+    <t>5.117s</t>
+  </si>
+  <si>
+    <t>4.863s</t>
+  </si>
+  <si>
+    <t>0.0009s</t>
   </si>
 </sst>
 </file>
@@ -521,33 +539,34 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.83984375" customWidth="1"/>
-    <col min="6" max="6" width="12.62890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.3671875" customWidth="1"/>
-    <col min="10" max="10" width="3.83984375" customWidth="1"/>
-    <col min="11" max="11" width="19.41796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1015625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.83984375" customWidth="1"/>
-    <col min="15" max="15" width="3.83984375" customWidth="1"/>
-    <col min="16" max="16" width="16.1015625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.1015625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" customWidth="1"/>
+    <col min="15" max="15" width="3.88671875" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.05078125" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -576,7 +595,7 @@
       <c r="R1" s="5"/>
       <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -621,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,36 +669,52 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
       <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="3"/>
       <c r="P4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -708,7 +743,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
